--- a/tp1_fisica/estudio_aceleraciones_M200_papel.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_M200_papel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>m</t>
   </si>
@@ -49,6 +49,45 @@
     <t>3000,3029.00</t>
   </si>
   <si>
+    <t>4000,442.00</t>
+  </si>
+  <si>
+    <t>4250,599.00</t>
+  </si>
+  <si>
+    <t>4500,660.00</t>
+  </si>
+  <si>
+    <t>5000,782.00</t>
+  </si>
+  <si>
+    <t>5250,842.00</t>
+  </si>
+  <si>
+    <t>5500,935.00</t>
+  </si>
+  <si>
+    <t>5750,1251.00</t>
+  </si>
+  <si>
+    <t>6000,1356.00</t>
+  </si>
+  <si>
+    <t>6250,1592.00</t>
+  </si>
+  <si>
+    <t>6500,1945.00</t>
+  </si>
+  <si>
+    <t>6750,2282.00</t>
+  </si>
+  <si>
+    <t>7000,2727.00</t>
+  </si>
+  <si>
+    <t>7250,2921.00</t>
+  </si>
+  <si>
     <t>250,1158.00</t>
   </si>
   <si>
@@ -76,45 +115,6 @@
     <t>2250,2980.00</t>
   </si>
   <si>
-    <t>4000,442.00</t>
-  </si>
-  <si>
-    <t>4250,599.00</t>
-  </si>
-  <si>
-    <t>4500,660.00</t>
-  </si>
-  <si>
-    <t>5000,782.00</t>
-  </si>
-  <si>
-    <t>5250,842.00</t>
-  </si>
-  <si>
-    <t>5500,935.00</t>
-  </si>
-  <si>
-    <t>5750,1251.00</t>
-  </si>
-  <si>
-    <t>6000,1356.00</t>
-  </si>
-  <si>
-    <t>6250,1592.00</t>
-  </si>
-  <si>
-    <t>6500,1945.00</t>
-  </si>
-  <si>
-    <t>6750,2282.00</t>
-  </si>
-  <si>
-    <t>7000,2727.00</t>
-  </si>
-  <si>
-    <t>7250,2921.00</t>
-  </si>
-  <si>
     <t>750,1176.00</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>2250,2941.00</t>
-  </si>
-  <si>
-    <t>2500,2941.00</t>
   </si>
 </sst>
 </file>
@@ -485,13 +482,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
-        <f> 22.29+ 22.07+ 22.15</f>
-        <v>66.51</v>
+      <c r="A11" s="3">
+        <f> 22.15+ 22.07</f>
+        <v>44.22</v>
       </c>
       <c r="B11" s="3">
-        <f>5.36+ 71.6 + 72.184 + 111.03</f>
-        <v>260.174</v>
+        <f>71.6+ 72.184+ 22.29+ 5.36 + 111.03</f>
+        <v>282.464</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -554,14 +551,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
-        <f> 22.15+ 22.07</f>
-        <v>44.22</v>
-      </c>
-      <c r="B20" s="3">
-        <f>71.6+ 72.184+ 22.29+ 5.36 + 111.03</f>
-        <v>282.464</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
@@ -588,8 +579,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2">
+        <f> 22.29+ 22.07+ 22.15</f>
+        <v>66.51</v>
+      </c>
+      <c r="B24" s="3">
+        <f>5.36+ 71.6 + 72.184 + 111.03</f>
+        <v>260.174</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
@@ -704,13 +701,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
